--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H2">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I2">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J2">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.71759474949102</v>
+        <v>5.436778333333334</v>
       </c>
       <c r="N2">
-        <v>3.71759474949102</v>
+        <v>16.310335</v>
       </c>
       <c r="O2">
-        <v>0.08788932983136978</v>
+        <v>0.121853993972124</v>
       </c>
       <c r="P2">
-        <v>0.08788932983136978</v>
+        <v>0.121853993972124</v>
       </c>
       <c r="Q2">
-        <v>75.97995348070907</v>
+        <v>7.205559861446111</v>
       </c>
       <c r="R2">
-        <v>75.97995348070907</v>
+        <v>64.85003875301501</v>
       </c>
       <c r="S2">
-        <v>0.04279601142467006</v>
+        <v>0.003555793625292102</v>
       </c>
       <c r="T2">
-        <v>0.04279601142467006</v>
+        <v>0.003555793625292102</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H3">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I3">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J3">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.6836177524314</v>
+        <v>20.81735866666667</v>
       </c>
       <c r="N3">
-        <v>20.6836177524314</v>
+        <v>62.452076</v>
       </c>
       <c r="O3">
-        <v>0.4889907118031908</v>
+        <v>0.4665774732677552</v>
       </c>
       <c r="P3">
-        <v>0.4889907118031908</v>
+        <v>0.4665774732677551</v>
       </c>
       <c r="Q3">
-        <v>422.7303997719674</v>
+        <v>27.59000180496489</v>
       </c>
       <c r="R3">
-        <v>422.7303997719674</v>
+        <v>248.310016244684</v>
       </c>
       <c r="S3">
-        <v>0.2381045813984306</v>
+        <v>0.01361509090567777</v>
       </c>
       <c r="T3">
-        <v>0.2381045813984306</v>
+        <v>0.01361509090567777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H4">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I4">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J4">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.73373843961527</v>
+        <v>5.131792</v>
       </c>
       <c r="N4">
-        <v>4.73373843961527</v>
+        <v>15.395376</v>
       </c>
       <c r="O4">
-        <v>0.1119124399214684</v>
+        <v>0.1150183643869107</v>
       </c>
       <c r="P4">
-        <v>0.1119124399214684</v>
+        <v>0.1150183643869107</v>
       </c>
       <c r="Q4">
-        <v>96.74783043016059</v>
+        <v>6.801350392709333</v>
       </c>
       <c r="R4">
-        <v>96.74783043016059</v>
+        <v>61.212153534384</v>
       </c>
       <c r="S4">
-        <v>0.05449360083449416</v>
+        <v>0.003356324676334055</v>
       </c>
       <c r="T4">
-        <v>0.05449360083449416</v>
+        <v>0.003356324676334055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H5">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I5">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J5">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.1636393039886</v>
+        <v>13.23122433333333</v>
       </c>
       <c r="N5">
-        <v>13.1636393039886</v>
+        <v>39.693673</v>
       </c>
       <c r="O5">
-        <v>0.3112075184439712</v>
+        <v>0.2965501683732101</v>
       </c>
       <c r="P5">
-        <v>0.3112075184439712</v>
+        <v>0.2965501683732101</v>
       </c>
       <c r="Q5">
-        <v>269.0375819179382</v>
+        <v>17.53582234345077</v>
       </c>
       <c r="R5">
-        <v>269.0375819179382</v>
+        <v>157.822401091057</v>
       </c>
       <c r="S5">
-        <v>0.1515364895866773</v>
+        <v>0.008653562873958701</v>
       </c>
       <c r="T5">
-        <v>0.1515364895866773</v>
+        <v>0.008653562873958701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.5350497075705</v>
+        <v>20.45485233333333</v>
       </c>
       <c r="H6">
-        <v>21.5350497075705</v>
+        <v>61.364557</v>
       </c>
       <c r="I6">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="J6">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.71759474949102</v>
+        <v>5.436778333333334</v>
       </c>
       <c r="N6">
-        <v>3.71759474949102</v>
+        <v>16.310335</v>
       </c>
       <c r="O6">
-        <v>0.08788932983136978</v>
+        <v>0.121853993972124</v>
       </c>
       <c r="P6">
-        <v>0.08788932983136978</v>
+        <v>0.121853993972124</v>
       </c>
       <c r="Q6">
-        <v>80.05858772289221</v>
+        <v>111.2084979773994</v>
       </c>
       <c r="R6">
-        <v>80.05858772289221</v>
+        <v>1000.876481796595</v>
       </c>
       <c r="S6">
-        <v>0.04509331840669972</v>
+        <v>0.05487907612871948</v>
       </c>
       <c r="T6">
-        <v>0.04509331840669972</v>
+        <v>0.05487907612871949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.5350497075705</v>
+        <v>20.45485233333333</v>
       </c>
       <c r="H7">
-        <v>21.5350497075705</v>
+        <v>61.364557</v>
       </c>
       <c r="I7">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="J7">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.6836177524314</v>
+        <v>20.81735866666667</v>
       </c>
       <c r="N7">
-        <v>20.6836177524314</v>
+        <v>62.452076</v>
       </c>
       <c r="O7">
-        <v>0.4889907118031908</v>
+        <v>0.4665774732677552</v>
       </c>
       <c r="P7">
-        <v>0.4889907118031908</v>
+        <v>0.4665774732677551</v>
       </c>
       <c r="Q7">
-        <v>445.4227364309978</v>
+        <v>425.8159974967035</v>
       </c>
       <c r="R7">
-        <v>445.4227364309978</v>
+        <v>3832.343977470332</v>
       </c>
       <c r="S7">
-        <v>0.2508861304047602</v>
+        <v>0.2101313206136216</v>
       </c>
       <c r="T7">
-        <v>0.2508861304047602</v>
+        <v>0.2101313206136216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.5350497075705</v>
+        <v>20.45485233333333</v>
       </c>
       <c r="H8">
-        <v>21.5350497075705</v>
+        <v>61.364557</v>
       </c>
       <c r="I8">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="J8">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.73373843961527</v>
+        <v>5.131792</v>
       </c>
       <c r="N8">
-        <v>4.73373843961527</v>
+        <v>15.395376</v>
       </c>
       <c r="O8">
-        <v>0.1119124399214684</v>
+        <v>0.1150183643869107</v>
       </c>
       <c r="P8">
-        <v>0.1119124399214684</v>
+        <v>0.1150183643869107</v>
       </c>
       <c r="Q8">
-        <v>101.9412925997521</v>
+        <v>104.9700475653813</v>
       </c>
       <c r="R8">
-        <v>101.9412925997521</v>
+        <v>944.7304280884319</v>
       </c>
       <c r="S8">
-        <v>0.05741883908697425</v>
+        <v>0.05180053086182845</v>
       </c>
       <c r="T8">
-        <v>0.05741883908697425</v>
+        <v>0.05180053086182845</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>20.45485233333333</v>
+      </c>
+      <c r="H9">
+        <v>61.364557</v>
+      </c>
+      <c r="I9">
+        <v>0.4503674794711605</v>
+      </c>
+      <c r="J9">
+        <v>0.4503674794711605</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.23122433333333</v>
+      </c>
+      <c r="N9">
+        <v>39.693673</v>
+      </c>
+      <c r="O9">
+        <v>0.2965501683732101</v>
+      </c>
+      <c r="P9">
+        <v>0.2965501683732101</v>
+      </c>
+      <c r="Q9">
+        <v>270.64273992754</v>
+      </c>
+      <c r="R9">
+        <v>2435.784659347861</v>
+      </c>
+      <c r="S9">
+        <v>0.1335565518669909</v>
+      </c>
+      <c r="T9">
+        <v>0.1335565518669909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H10">
+        <v>70.913848</v>
+      </c>
+      <c r="I10">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J10">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.436778333333334</v>
+      </c>
+      <c r="N10">
+        <v>16.310335</v>
+      </c>
+      <c r="O10">
+        <v>0.121853993972124</v>
+      </c>
+      <c r="P10">
+        <v>0.121853993972124</v>
+      </c>
+      <c r="Q10">
+        <v>128.5142907798978</v>
+      </c>
+      <c r="R10">
+        <v>1156.62861701908</v>
+      </c>
+      <c r="S10">
+        <v>0.06341912421811245</v>
+      </c>
+      <c r="T10">
+        <v>0.06341912421811245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>21.5350497075705</v>
-      </c>
-      <c r="H9">
-        <v>21.5350497075705</v>
-      </c>
-      <c r="I9">
-        <v>0.513069316755728</v>
-      </c>
-      <c r="J9">
-        <v>0.513069316755728</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>13.1636393039886</v>
-      </c>
-      <c r="N9">
-        <v>13.1636393039886</v>
-      </c>
-      <c r="O9">
-        <v>0.3112075184439712</v>
-      </c>
-      <c r="P9">
-        <v>0.3112075184439712</v>
-      </c>
-      <c r="Q9">
-        <v>283.4796267439232</v>
-      </c>
-      <c r="R9">
-        <v>283.4796267439232</v>
-      </c>
-      <c r="S9">
-        <v>0.1596710288572939</v>
-      </c>
-      <c r="T9">
-        <v>0.1596710288572939</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H11">
+        <v>70.913848</v>
+      </c>
+      <c r="I11">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J11">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.81735866666667</v>
+      </c>
+      <c r="N11">
+        <v>62.452076</v>
+      </c>
+      <c r="O11">
+        <v>0.4665774732677552</v>
+      </c>
+      <c r="P11">
+        <v>0.4665774732677551</v>
+      </c>
+      <c r="Q11">
+        <v>492.0796694164943</v>
+      </c>
+      <c r="R11">
+        <v>4428.717024748448</v>
+      </c>
+      <c r="S11">
+        <v>0.2428310617484558</v>
+      </c>
+      <c r="T11">
+        <v>0.2428310617484557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H12">
+        <v>70.913848</v>
+      </c>
+      <c r="I12">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J12">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.131792</v>
+      </c>
+      <c r="N12">
+        <v>15.395376</v>
+      </c>
+      <c r="O12">
+        <v>0.1150183643869107</v>
+      </c>
+      <c r="P12">
+        <v>0.1150183643869107</v>
+      </c>
+      <c r="Q12">
+        <v>121.3050392852053</v>
+      </c>
+      <c r="R12">
+        <v>1091.745353566848</v>
+      </c>
+      <c r="S12">
+        <v>0.05986150884874818</v>
+      </c>
+      <c r="T12">
+        <v>0.05986150884874818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H13">
+        <v>70.913848</v>
+      </c>
+      <c r="I13">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J13">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.23122433333333</v>
+      </c>
+      <c r="N13">
+        <v>39.693673</v>
+      </c>
+      <c r="O13">
+        <v>0.2965501683732101</v>
+      </c>
+      <c r="P13">
+        <v>0.2965501683732101</v>
+      </c>
+      <c r="Q13">
+        <v>312.7590104093004</v>
+      </c>
+      <c r="R13">
+        <v>2814.831093683704</v>
+      </c>
+      <c r="S13">
+        <v>0.1543400536322605</v>
+      </c>
+      <c r="T13">
+        <v>0.1543400536322605</v>
       </c>
     </row>
   </sheetData>
